--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2036.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2036.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.155123413988175</v>
+        <v>1.225455164909363</v>
       </c>
       <c r="B1">
-        <v>2.370133310535285</v>
+        <v>2.196571588516235</v>
       </c>
       <c r="C1">
-        <v>6.310716551193524</v>
+        <v>6.065976619720459</v>
       </c>
       <c r="D1">
-        <v>2.343064328745307</v>
+        <v>1.988811492919922</v>
       </c>
       <c r="E1">
-        <v>1.217950739925397</v>
+        <v>1.15572988986969</v>
       </c>
     </row>
   </sheetData>
